--- a/project/uploads/93/split_output/25.xlsx
+++ b/project/uploads/93/split_output/25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9ACACB2-BAF6-47F0-B404-56C0F557954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C64C2B-B163-4B81-BD0A-3004544299C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{F72EFC7A-C355-4851-A730-DDF840F440A9}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" xr2:uid="{A2269791-C75C-4D09-94F2-6016B3F7E8FE}"/>
   </bookViews>
   <sheets>
     <sheet name="25" sheetId="1" r:id="rId1"/>
@@ -2233,7 +2233,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{814F5979-B5C5-414F-BB96-E478D3C91CDD}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{67EBC389-F602-460D-AE60-88F9BCF1230D}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7844,7 +7844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592F8C86-234C-452F-99BB-623160190092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12DC834-FA0A-428E-AFB5-81691AB0A7C1}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7854,26 +7854,26 @@
       <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="6"/>
-    <col min="2" max="2" width="5.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6"/>
-    <col min="4" max="4" width="4.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10" style="6"/>
-    <col min="7" max="7" width="12.77734375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="6" customWidth="1"/>
-    <col min="11" max="12" width="10" style="6"/>
-    <col min="13" max="13" width="7.6640625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="10" style="6"/>
-    <col min="16" max="16" width="8.33203125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="6" customWidth="1"/>
-    <col min="19" max="21" width="11.6640625" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="10" style="6"/>
+    <col min="1" max="1" width="9.81640625" style="6"/>
+    <col min="2" max="2" width="5.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="6"/>
+    <col min="4" max="4" width="4.6328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="6"/>
+    <col min="7" max="7" width="12.54296875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="6" customWidth="1"/>
+    <col min="11" max="12" width="9.81640625" style="6"/>
+    <col min="13" max="13" width="7.453125" style="6" customWidth="1"/>
+    <col min="14" max="15" width="9.81640625" style="6"/>
+    <col min="16" max="16" width="8.1796875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="6" customWidth="1"/>
+    <col min="19" max="21" width="11.453125" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -7933,7 +7933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
@@ -9549,7 +9549,7 @@
       <c r="T37" s="34"/>
       <c r="U37" s="35"/>
     </row>
-    <row r="38" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
       <c r="B38" s="48">
         <v>30</v>
@@ -9583,7 +9583,7 @@
       <c r="T38" s="51"/>
       <c r="U38" s="52"/>
     </row>
-    <row r="41" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>69</v>
@@ -10683,7 +10683,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K1" location="目录!A1" display="返回" xr:uid="{5410CD6E-0FD0-40F8-A45D-F106D8D6DC11}"/>
+    <hyperlink ref="K1" location="目录!A1" display="返回" xr:uid="{BEDE5A1C-E3FF-47C0-8BAF-9235C7E2AE1A}"/>
   </hyperlinks>
   <pageMargins left="0.26" right="0.11" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200"/>
